--- a/data/trans_orig/P64D1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30739</v>
+        <v>31527</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61757</v>
+        <v>62702</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4388678072706452</v>
+        <v>0.4388678072706451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2932570303769532</v>
+        <v>0.3007743784012012</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5891619256267394</v>
+        <v>0.5981825110642058</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>30602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20154</v>
+        <v>19926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44824</v>
+        <v>42725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3335598236996267</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2196782697236737</v>
+        <v>0.2171901209299776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4885873919898207</v>
+        <v>0.465707848562936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -783,19 +783,19 @@
         <v>76604</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59252</v>
+        <v>56868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97671</v>
+        <v>97826</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3897170324115308</v>
+        <v>0.3897170324115309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.301439661720788</v>
+        <v>0.2893120061684551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4968928009962597</v>
+        <v>0.4976780823863917</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>58818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43064</v>
+        <v>42119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74082</v>
+        <v>73294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5611321927293549</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4108380743732604</v>
+        <v>0.4018174889357938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7067429696230466</v>
+        <v>0.6992256215987994</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -833,19 +833,19 @@
         <v>61141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46919</v>
+        <v>49018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71589</v>
+        <v>71817</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6664401763003732</v>
+        <v>0.6664401763003733</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5114126080101796</v>
+        <v>0.534292151437064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7803217302763262</v>
+        <v>0.7828098790700224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -854,19 +854,19 @@
         <v>119960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98893</v>
+        <v>98738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137312</v>
+        <v>139696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6102829675884692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5031071990037405</v>
+        <v>0.5023219176136083</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6985603382792122</v>
+        <v>0.710687993831545</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>84624</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66699</v>
+        <v>66274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107840</v>
+        <v>106214</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2137410828132278</v>
+        <v>0.2137410828132279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1684652615627578</v>
+        <v>0.1673911703271936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2723788051496559</v>
+        <v>0.2682702743971065</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -979,19 +979,19 @@
         <v>118871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100329</v>
+        <v>101607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136230</v>
+        <v>135619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3772272345778406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3183857728785153</v>
+        <v>0.322439918644337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4323123862309303</v>
+        <v>0.4303749713719476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -1000,19 +1000,19 @@
         <v>203496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178502</v>
+        <v>178247</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>233332</v>
+        <v>231570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2861950797846917</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2510433573435328</v>
+        <v>0.2506843354014857</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3281557897698867</v>
+        <v>0.3256785376439744</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>311296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288080</v>
+        <v>289706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>329221</v>
+        <v>329646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7862589171867723</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7276211948503443</v>
+        <v>0.7317297256028935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8315347384372422</v>
+        <v>0.8326088296728064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>180</v>
@@ -1050,19 +1050,19 @@
         <v>196248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178889</v>
+        <v>179500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>214790</v>
+        <v>213512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6227727654221594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5676876137690698</v>
+        <v>0.5696250286280526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6816142271214848</v>
+        <v>0.6775600813556631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>370</v>
@@ -1071,19 +1071,19 @@
         <v>507544</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>477708</v>
+        <v>479470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>532538</v>
+        <v>532793</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7138049202153085</v>
+        <v>0.7138049202153083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.671844210230114</v>
+        <v>0.6743214623560256</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7489566426564682</v>
+        <v>0.7493156645985145</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>123032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103450</v>
+        <v>103682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144932</v>
+        <v>142664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.229325581527926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1928262132000631</v>
+        <v>0.1932574528705216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2701459384973566</v>
+        <v>0.2659180503107209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -1196,19 +1196,19 @@
         <v>143447</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127285</v>
+        <v>127458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158697</v>
+        <v>160146</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3613276450054947</v>
+        <v>0.3613276450054946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3206181727807493</v>
+        <v>0.3210531623193481</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3997404121476045</v>
+        <v>0.403392323353428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>316</v>
@@ -1217,19 +1217,19 @@
         <v>266479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>239851</v>
+        <v>241177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>293630</v>
+        <v>292784</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2854637495781311</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.256938920995648</v>
+        <v>0.2583586898660122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3145492060842153</v>
+        <v>0.3136432066893674</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>413464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>391564</v>
+        <v>393832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>433046</v>
+        <v>432814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.770674418472074</v>
+        <v>0.7706744184720741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7298540615026435</v>
+        <v>0.734081949689279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.807173786799937</v>
+        <v>0.8067425471294783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>343</v>
@@ -1267,19 +1267,19 @@
         <v>253552</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238302</v>
+        <v>236853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269714</v>
+        <v>269541</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6386723549945054</v>
+        <v>0.6386723549945053</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6002595878523957</v>
+        <v>0.5966076766465722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.679381827219251</v>
+        <v>0.6789468376806522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>702</v>
@@ -1288,19 +1288,19 @@
         <v>667016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>639865</v>
+        <v>640711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>693644</v>
+        <v>692318</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7145362504218687</v>
+        <v>0.7145362504218689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6854507939157848</v>
+        <v>0.6863567933106325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.743061079004352</v>
+        <v>0.7416413101339878</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>124578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105602</v>
+        <v>105510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143838</v>
+        <v>145423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2291932370244625</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1942828896637403</v>
+        <v>0.1941119403163027</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2646266217136351</v>
+        <v>0.2675424836766137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -1413,19 +1413,19 @@
         <v>159841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145566</v>
+        <v>143875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177863</v>
+        <v>175648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3513102791856232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.319934822604542</v>
+        <v>0.3162186024875954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3909214205831386</v>
+        <v>0.3860524790778607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -1434,19 +1434,19 @@
         <v>284419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258223</v>
+        <v>259725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311653</v>
+        <v>308571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2848362045793821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.258601980123336</v>
+        <v>0.2601063502059984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3121102146113827</v>
+        <v>0.3090238390047104</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>418972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>399712</v>
+        <v>398127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>437948</v>
+        <v>438040</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7708067629755375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.735373378286365</v>
+        <v>0.7324575163233864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8057171103362598</v>
+        <v>0.8058880596836974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>455</v>
@@ -1484,19 +1484,19 @@
         <v>295144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>277122</v>
+        <v>279337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309419</v>
+        <v>311110</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6486897208143769</v>
+        <v>0.6486897208143768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6090785794168611</v>
+        <v>0.6139475209221387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6800651773954578</v>
+        <v>0.6837813975124044</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>853</v>
@@ -1505,19 +1505,19 @@
         <v>714116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>686882</v>
+        <v>689964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740312</v>
+        <v>738810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7151637954206179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6878897853886173</v>
+        <v>0.6909761609952897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.741398019876664</v>
+        <v>0.7398936497940015</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>87515</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73952</v>
+        <v>73032</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103870</v>
+        <v>104021</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2672989105577733</v>
+        <v>0.2672989105577732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2258712644040467</v>
+        <v>0.2230618985543943</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3172527634087882</v>
+        <v>0.3177119123414815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -1630,19 +1630,19 @@
         <v>106566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95033</v>
+        <v>94043</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118643</v>
+        <v>117975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4578935248521152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4083349765355379</v>
+        <v>0.4040840429574676</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5097818357334771</v>
+        <v>0.5069115628027158</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -1651,19 +1651,19 @@
         <v>194082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175848</v>
+        <v>175058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215034</v>
+        <v>215201</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.346489234186053</v>
+        <v>0.3464892341860529</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3139373174833003</v>
+        <v>0.312527259890831</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3838948161678136</v>
+        <v>0.3841921044578329</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>239891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>223536</v>
+        <v>223385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>253454</v>
+        <v>254374</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7327010894422269</v>
+        <v>0.7327010894422266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6827472365912119</v>
+        <v>0.6822880876585183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7741287355959535</v>
+        <v>0.7769381014456058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -1701,19 +1701,19 @@
         <v>126166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>114089</v>
+        <v>114757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137699</v>
+        <v>138689</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5421064751478848</v>
+        <v>0.5421064751478847</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4902181642665226</v>
+        <v>0.4930884371972845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.591665023464462</v>
+        <v>0.5959159570425323</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>462</v>
@@ -1722,19 +1722,19 @@
         <v>366056</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345104</v>
+        <v>344937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384290</v>
+        <v>385080</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6535107658139471</v>
+        <v>0.653510765813947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6161051838321863</v>
+        <v>0.6158078955421671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6860626825166998</v>
+        <v>0.6874727401091691</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>465752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>776</v>
@@ -1847,19 +1847,19 @@
         <v>559328</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3749903532407272</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1189</v>
@@ -1868,19 +1868,19 @@
         <v>1025080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3015143870058419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>1442440</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1397075</v>
+        <v>1400065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1480725</v>
+        <v>1483574</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7559196514110788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7321460268091519</v>
+        <v>0.7337129584527237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.775983230228476</v>
+        <v>0.7774761394806304</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1220</v>
@@ -1918,19 +1918,19 @@
         <v>932251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>898903</v>
+        <v>901095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>965486</v>
+        <v>969671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.625009646759273</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6026516298063749</v>
+        <v>0.6041212618286859</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6472914910118648</v>
+        <v>0.6500971372057732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2451</v>
@@ -1939,19 +1939,19 @@
         <v>2374691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2317448</v>
+        <v>2318831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2422664</v>
+        <v>2428142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6984856129941581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.681648319096639</v>
+        <v>0.6820551097883945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7125961567730363</v>
+        <v>0.71420750674542</v>
       </c>
     </row>
     <row r="21">
